--- a/datas/馆藏卡/馆藏卡排表.xlsx
+++ b/datas/馆藏卡/馆藏卡排表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>character</t>
   </si>
@@ -47,22 +47,34 @@
     <t>周末在线（闲鱼）</t>
   </si>
   <si>
+    <t>冰鹰北斗</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>日日树涉</t>
   </si>
   <si>
     <t>团长</t>
   </si>
   <si>
+    <t>明星昴流</t>
+  </si>
+  <si>
     <t>姬宫桃李</t>
   </si>
   <si>
-    <t>宅系羊</t>
+    <t>游木真</t>
+  </si>
+  <si>
+    <t>瑾瑜（闲鱼）</t>
   </si>
   <si>
     <t>伏见弓弦</t>
   </si>
   <si>
-    <t>瑾瑜（闲鱼）</t>
+    <t>衣更真绪</t>
   </si>
   <si>
     <t>天城一彩</t>
@@ -71,10 +83,13 @@
     <t>冷焰</t>
   </si>
   <si>
+    <t>南云铁虎</t>
+  </si>
+  <si>
     <t>白鸟蓝良</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>高峯翠</t>
   </si>
   <si>
     <t>礼濑真宵</t>
@@ -86,46 +101,82 @@
     <t>Dive（闲鱼）</t>
   </si>
   <si>
+    <t>仙石忍</t>
+  </si>
+  <si>
     <t>风早巽</t>
   </si>
   <si>
     <t>糖果村随机数（微信）</t>
   </si>
   <si>
+    <t>守泽千秋</t>
+  </si>
+  <si>
     <t>乱凪砂</t>
   </si>
   <si>
+    <t>深海奏汰</t>
+  </si>
+  <si>
     <t>巴日和</t>
   </si>
   <si>
     <t>龟龟（闲鱼）</t>
   </si>
   <si>
+    <t>斋宫宗</t>
+  </si>
+  <si>
     <t>七种茨</t>
   </si>
   <si>
     <t>鱼尾巴（闲鱼）</t>
   </si>
   <si>
+    <t>影片美伽</t>
+  </si>
+  <si>
+    <t>水的离子积（闲鱼）</t>
+  </si>
+  <si>
     <t>涟纯</t>
   </si>
   <si>
     <t>薄荷桃桃子（闲鱼）</t>
   </si>
   <si>
+    <t>葵日向</t>
+  </si>
+  <si>
     <t>天城燐音</t>
   </si>
   <si>
+    <t>葵裕太</t>
+  </si>
+  <si>
     <t>HiMERU</t>
   </si>
   <si>
+    <t>朔间零</t>
+  </si>
+  <si>
     <t>樱河琥珀</t>
   </si>
   <si>
+    <t>羽风薰</t>
+  </si>
+  <si>
+    <t>千谰（闲鱼）</t>
+  </si>
+  <si>
+    <t>alexis（闲鱼）</t>
+  </si>
+  <si>
     <t>椎名丹希</t>
   </si>
   <si>
-    <t>水的离子积（闲鱼）</t>
+    <t>大神晃牙</t>
   </si>
   <si>
     <t>仁兔成鸣</t>
@@ -134,121 +185,67 @@
     <t>小魚是字母人（闲鱼）</t>
   </si>
   <si>
+    <t>乙狩阿多尼斯</t>
+  </si>
+  <si>
+    <t>阿开（闲鱼）</t>
+  </si>
+  <si>
     <t>真白友也</t>
   </si>
   <si>
     <t>Sunflower</t>
   </si>
   <si>
+    <t>朱樱司</t>
+  </si>
+  <si>
     <t>天满光</t>
   </si>
   <si>
+    <t>月永雷欧</t>
+  </si>
+  <si>
     <t>紫之创</t>
   </si>
   <si>
+    <t>濑名泉</t>
+  </si>
+  <si>
+    <t>炸虾尾巴（微信）</t>
+  </si>
+  <si>
     <t>莲巳敬人</t>
   </si>
   <si>
     <t>林莫米（闲鱼）</t>
   </si>
   <si>
+    <t>朔间凛月</t>
+  </si>
+  <si>
     <t>鬼龙红郎</t>
   </si>
   <si>
     <t>少卿（闲鱼）</t>
   </si>
   <si>
+    <t>鸣上岚</t>
+  </si>
+  <si>
+    <t>灯灯（闲鱼）</t>
+  </si>
+  <si>
     <t>神崎飒马</t>
   </si>
   <si>
     <t>scintia（闲鱼）</t>
   </si>
   <si>
+    <t>逆先夏目</t>
+  </si>
+  <si>
     <t>三毛缟斑</t>
-  </si>
-  <si>
-    <t>千谰（闲鱼）</t>
-  </si>
-  <si>
-    <t>冰鹰北斗</t>
-  </si>
-  <si>
-    <t>明星昴流</t>
-  </si>
-  <si>
-    <t>游木真</t>
-  </si>
-  <si>
-    <t>衣更真绪</t>
-  </si>
-  <si>
-    <t>南云铁虎</t>
-  </si>
-  <si>
-    <t>高峯翠</t>
-  </si>
-  <si>
-    <t>仙石忍</t>
-  </si>
-  <si>
-    <t>守泽千秋</t>
-  </si>
-  <si>
-    <t>深海奏汰</t>
-  </si>
-  <si>
-    <t>斋宫宗</t>
-  </si>
-  <si>
-    <t>影片美伽</t>
-  </si>
-  <si>
-    <t>葵日向</t>
-  </si>
-  <si>
-    <t>葵裕太</t>
-  </si>
-  <si>
-    <t>朔间零</t>
-  </si>
-  <si>
-    <t>羽风薰</t>
-  </si>
-  <si>
-    <t>alexis（闲鱼）</t>
-  </si>
-  <si>
-    <t>大神晃牙</t>
-  </si>
-  <si>
-    <t>乙狩阿多尼斯</t>
-  </si>
-  <si>
-    <t>阿开（闲鱼）</t>
-  </si>
-  <si>
-    <t>朱樱司</t>
-  </si>
-  <si>
-    <t>月永雷欧</t>
-  </si>
-  <si>
-    <t>濑名泉</t>
-  </si>
-  <si>
-    <t>炸虾尾巴（微信）</t>
-  </si>
-  <si>
-    <t>朔间凛月</t>
-  </si>
-  <si>
-    <t>鸣上岚</t>
-  </si>
-  <si>
-    <t>灯灯（闲鱼）</t>
-  </si>
-  <si>
-    <t>逆先夏目</t>
   </si>
   <si>
     <t>青叶纺</t>
@@ -283,8 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,12 +432,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -752,19 +756,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,7 +777,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,16 +801,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -815,95 +819,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1251,20 +1264,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="21.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="18.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,544 +1287,505 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>15</v>
+      <c r="E26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
